--- a/数据库表.xlsx
+++ b/数据库表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9480"/>
+    <workbookView windowWidth="24000" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,558 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184">
+  <si>
+    <t>系统管理</t>
+  </si>
   <si>
     <t>公司表</t>
   </si>
   <si>
-    <t>表名</t>
-  </si>
-  <si>
-    <t>Company</t>
+    <t>company</t>
+  </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>companyId</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>companyName</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>upload</t>
+  </si>
+  <si>
+    <t>部门表</t>
+  </si>
+  <si>
+    <t>dept</t>
+  </si>
+  <si>
+    <t>deptId</t>
+  </si>
+  <si>
+    <t>deptName</t>
+  </si>
+  <si>
+    <t>人员表</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>用户id</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>userCode</t>
+  </si>
+  <si>
+    <t>账号</t>
+  </si>
+  <si>
+    <t>userPassword</t>
+  </si>
+  <si>
+    <t>用户密码</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>部门id</t>
+  </si>
+  <si>
+    <t>roleid</t>
+  </si>
+  <si>
+    <t>角色id</t>
+  </si>
+  <si>
+    <t>headPortrait</t>
+  </si>
+  <si>
+    <t>头像url</t>
+  </si>
+  <si>
+    <t>角色表</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>roleId</t>
+  </si>
+  <si>
+    <t>角色序号</t>
+  </si>
+  <si>
+    <t>roleName</t>
+  </si>
+  <si>
+    <t>角色名</t>
+  </si>
+  <si>
+    <t>普通员工、部门领导、管理员</t>
+  </si>
+  <si>
+    <t>卡片管理</t>
+  </si>
+  <si>
+    <t>客户表</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>customerId</t>
+  </si>
+  <si>
+    <t>客户id</t>
+  </si>
+  <si>
+    <t>公司名称</t>
+  </si>
+  <si>
+    <t>companyAddres</t>
+  </si>
+  <si>
+    <t>公司地址</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>公司邮箱</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>公司网址</t>
+  </si>
+  <si>
+    <t>linkman</t>
+  </si>
+  <si>
+    <t>联系人</t>
+  </si>
+  <si>
+    <t>linkmanPhone</t>
+  </si>
+  <si>
+    <t>联系人电话</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>createUser</t>
+  </si>
+  <si>
+    <t>创建人</t>
+  </si>
+  <si>
+    <t>createDeptName</t>
+  </si>
+  <si>
+    <t>创建部门</t>
+  </si>
+  <si>
+    <t>createDate</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>创建日期</t>
+  </si>
+  <si>
+    <t>modifyUser</t>
+  </si>
+  <si>
+    <t>修改人</t>
+  </si>
+  <si>
+    <t>modifyDeptName</t>
+  </si>
+  <si>
+    <t>修改部门</t>
+  </si>
+  <si>
+    <t>modifyDate</t>
+  </si>
+  <si>
+    <t>修改日期</t>
+  </si>
+  <si>
+    <t>供应商表</t>
+  </si>
+  <si>
+    <t>provider</t>
+  </si>
+  <si>
+    <t>providerId</t>
+  </si>
+  <si>
+    <t>供应商id</t>
+  </si>
+  <si>
+    <t>生产管理</t>
+  </si>
+  <si>
+    <t>产品表</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>productId</t>
+  </si>
+  <si>
+    <t>产品id</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>产品名称</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>成本</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>建议售价</t>
+  </si>
+  <si>
+    <t>inventory</t>
+  </si>
+  <si>
+    <t>库存量</t>
+  </si>
+  <si>
+    <t>物料表</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>materialId</t>
+  </si>
+  <si>
+    <t>物料Id</t>
+  </si>
+  <si>
+    <t>materialName</t>
+  </si>
+  <si>
+    <t>物料名称</t>
+  </si>
+  <si>
+    <t>物料进价</t>
+  </si>
+  <si>
+    <t>销售管理</t>
+  </si>
+  <si>
+    <t>销售审批表</t>
+  </si>
+  <si>
+    <t>SalesApproval</t>
+  </si>
+  <si>
+    <t>SalesApprovalId</t>
+  </si>
+  <si>
+    <t>销售审批id</t>
+  </si>
+  <si>
+    <t>SalesApprovalName</t>
+  </si>
+  <si>
+    <t>销售审批名</t>
+  </si>
+  <si>
+    <t>通过下拉框选择自动填充</t>
+  </si>
+  <si>
+    <t>salePrice</t>
+  </si>
+  <si>
+    <t>真实售价</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>需求量</t>
+  </si>
+  <si>
+    <t>approvalOne</t>
+  </si>
+  <si>
+    <t>初次审批（销售领导）</t>
+  </si>
+  <si>
+    <t>approvalTwo</t>
+  </si>
+  <si>
+    <t>二次审批（法务部）</t>
+  </si>
+  <si>
+    <t>approvalThree</t>
+  </si>
+  <si>
+    <t>三次审批（管理部）</t>
+  </si>
+  <si>
+    <t>accessory</t>
+  </si>
+  <si>
+    <t>附件url，由法务部合同起草，管理部下载查阅</t>
+  </si>
+  <si>
+    <t>销售合同</t>
+  </si>
+  <si>
+    <t>salescontract</t>
+  </si>
+  <si>
+    <t>salesContractId</t>
+  </si>
+  <si>
+    <t>销售合同id</t>
+  </si>
+  <si>
+    <t>contractName</t>
+  </si>
+  <si>
+    <t>销售合同名称</t>
+  </si>
+  <si>
+    <t>销售单价</t>
+  </si>
+  <si>
+    <t>contractAmount</t>
+  </si>
+  <si>
+    <t>销售总价</t>
+  </si>
+  <si>
+    <t>invoiceAmount</t>
+  </si>
+  <si>
+    <t>已开票金额</t>
+  </si>
+  <si>
+    <t>getMoneyAmount</t>
+  </si>
+  <si>
+    <t>已收款金额</t>
+  </si>
+  <si>
+    <t>合同附件（扫描归档）</t>
+  </si>
+  <si>
+    <t>saleUser</t>
+  </si>
+  <si>
+    <t>销售负责人</t>
+  </si>
+  <si>
+    <t>合同登记人</t>
+  </si>
+  <si>
+    <t>采购管理</t>
+  </si>
+  <si>
+    <t>采购合同登记</t>
+  </si>
+  <si>
+    <t>purchasecontract</t>
+  </si>
+  <si>
+    <t>purchaseContractId</t>
+  </si>
+  <si>
+    <t>采购合同id</t>
+  </si>
+  <si>
+    <t>采购合同名称</t>
+  </si>
+  <si>
+    <t>采购</t>
+  </si>
+  <si>
+    <t>采购合同总价</t>
+  </si>
+  <si>
+    <t>getTicketAmount</t>
+  </si>
+  <si>
+    <t>已收票金额</t>
+  </si>
+  <si>
+    <t>paymentAmount</t>
+  </si>
+  <si>
+    <t>已付款金额</t>
+  </si>
+  <si>
+    <t>purchaseUser</t>
+  </si>
+  <si>
+    <t>采购负责人</t>
+  </si>
+  <si>
+    <t>票款管理</t>
+  </si>
+  <si>
+    <t>收款登记</t>
+  </si>
+  <si>
+    <t>getMoney</t>
+  </si>
+  <si>
+    <t>getMoneyId</t>
+  </si>
+  <si>
+    <t>收款登记id</t>
+  </si>
+  <si>
+    <t>addGetMoneyamount</t>
+  </si>
+  <si>
+    <t>添加收款金额</t>
+  </si>
+  <si>
+    <t>getMoneyDate</t>
+  </si>
+  <si>
+    <t>收款日期</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>收款内容（备注）</t>
+  </si>
+  <si>
+    <t>开票登记</t>
+  </si>
+  <si>
+    <t>invoice</t>
+  </si>
+  <si>
+    <t>invoiceId</t>
+  </si>
+  <si>
+    <t>开票登记ID</t>
+  </si>
+  <si>
+    <t>addInvoiceAmount</t>
+  </si>
+  <si>
+    <t>添加开票金额</t>
+  </si>
+  <si>
+    <t>invoiceDate</t>
+  </si>
+  <si>
+    <t>开票日期</t>
+  </si>
+  <si>
+    <t>开票内容（备注）</t>
+  </si>
+  <si>
+    <t>付款登记</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>paymentId</t>
+  </si>
+  <si>
+    <t>付款登记id</t>
+  </si>
+  <si>
+    <t>addPaymentAmount</t>
+  </si>
+  <si>
+    <t>添加付款金额</t>
+  </si>
+  <si>
+    <t>paymentDate</t>
+  </si>
+  <si>
+    <t>付款日期</t>
+  </si>
+  <si>
+    <t>收票登记</t>
+  </si>
+  <si>
+    <t>getTicket</t>
+  </si>
+  <si>
+    <t>getTicketId</t>
+  </si>
+  <si>
+    <t>收票登记id</t>
+  </si>
+  <si>
+    <t>addGetTicketAmount</t>
+  </si>
+  <si>
+    <t>添加收票金额</t>
+  </si>
+  <si>
+    <t>getTicketDate</t>
+  </si>
+  <si>
+    <t>收票日期</t>
+  </si>
+  <si>
+    <t>销售进度表</t>
+  </si>
+  <si>
+    <t>直接使用销售合同表字段</t>
+  </si>
+  <si>
+    <t>采购进度表</t>
+  </si>
+  <si>
+    <t>直接使用采购合同表字段</t>
   </si>
 </sst>
 </file>
@@ -66,20 +609,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -90,6 +619,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,6 +700,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -188,7 +731,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,37 +740,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,13 +776,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,19 +848,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,13 +884,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,13 +920,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,55 +930,93 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -496,10 +1125,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -508,138 +1137,240 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -961,26 +1692,2183 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="E9:G9"/>
+  <dimension ref="C8:J174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G166" sqref="G166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="9" max="9" width="39.125" customWidth="1"/>
+    <col min="10" max="10" width="35" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="9" spans="5:7">
-      <c r="E9" t="s">
+    <row r="8" ht="14.25" spans="3:9">
+      <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F9" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="24"/>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="9" t="s">
         <v>2</v>
       </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="25"/>
+    </row>
+    <row r="10" spans="3:9">
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="26"/>
+    </row>
+    <row r="11" spans="3:9">
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="26"/>
+    </row>
+    <row r="12" spans="3:9">
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="26"/>
+    </row>
+    <row r="13" ht="14.25" spans="3:9">
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="27"/>
+    </row>
+    <row r="14" ht="14.25" spans="3:9">
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="I14" s="28"/>
+    </row>
+    <row r="15" spans="3:9">
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="24"/>
+    </row>
+    <row r="16" spans="3:9">
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="28"/>
+    </row>
+    <row r="17" ht="14.25" spans="3:9">
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="29"/>
+    </row>
+    <row r="18" ht="14.25" spans="3:9">
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
+      <c r="I18" s="28"/>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="24"/>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="18"/>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="18"/>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="18"/>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="18"/>
+      <c r="G23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="18"/>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9">
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="18"/>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9">
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="18"/>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="3:9">
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="3:9">
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+      <c r="I28" s="28"/>
+    </row>
+    <row r="29" spans="3:9">
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="24"/>
+    </row>
+    <row r="30" spans="3:9">
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="18"/>
+      <c r="G30" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="3:10">
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="J31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9">
+      <c r="C34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="24"/>
+    </row>
+    <row r="35" spans="3:9">
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="18"/>
+      <c r="G35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9">
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="18"/>
+      <c r="G36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9">
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="18"/>
+      <c r="G37" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9">
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="18"/>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9">
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="18"/>
+      <c r="G39" t="s">
+        <v>48</v>
+      </c>
+      <c r="H39" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9">
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="18"/>
+      <c r="G40" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9">
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="18"/>
+      <c r="G41" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9">
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="18"/>
+      <c r="G42" t="s">
+        <v>54</v>
+      </c>
+      <c r="H42" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9">
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="18"/>
+      <c r="G43" t="s">
+        <v>56</v>
+      </c>
+      <c r="H43" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9">
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="18"/>
+      <c r="G44" t="s">
+        <v>58</v>
+      </c>
+      <c r="H44" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9">
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="18"/>
+      <c r="G45" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" t="s">
+        <v>61</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9">
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="18"/>
+      <c r="G46" t="s">
+        <v>63</v>
+      </c>
+      <c r="H46" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9">
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="18"/>
+      <c r="G47" t="s">
+        <v>65</v>
+      </c>
+      <c r="H47" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25" spans="3:9">
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I48" s="29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25" spans="3:9">
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="7"/>
+      <c r="I49" s="28"/>
+    </row>
+    <row r="50" spans="3:9">
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="24"/>
+    </row>
+    <row r="51" spans="3:9">
+      <c r="C51" s="5"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="18"/>
+      <c r="G51" t="s">
+        <v>71</v>
+      </c>
+      <c r="H51" t="s">
+        <v>6</v>
+      </c>
+      <c r="I51" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9">
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="18"/>
+      <c r="G52" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9">
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="18"/>
+      <c r="G53" t="s">
+        <v>44</v>
+      </c>
+      <c r="H53" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9">
+      <c r="C54" s="5"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="18"/>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9">
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="18"/>
+      <c r="G55" t="s">
+        <v>48</v>
+      </c>
+      <c r="H55" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9">
+      <c r="C56" s="5"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="18"/>
+      <c r="G56" t="s">
+        <v>50</v>
+      </c>
+      <c r="H56" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9">
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="18"/>
+      <c r="G57" t="s">
+        <v>52</v>
+      </c>
+      <c r="H57" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9">
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="18"/>
+      <c r="G58" t="s">
+        <v>54</v>
+      </c>
+      <c r="H58" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="3:9">
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="18"/>
+      <c r="G59" t="s">
+        <v>56</v>
+      </c>
+      <c r="H59" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="3:9">
+      <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="18"/>
+      <c r="G60" t="s">
+        <v>58</v>
+      </c>
+      <c r="H60" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9">
+      <c r="C61" s="5"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="18"/>
+      <c r="G61" t="s">
+        <v>60</v>
+      </c>
+      <c r="H61" t="s">
+        <v>61</v>
+      </c>
+      <c r="I61" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9">
+      <c r="C62" s="5"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="18"/>
+      <c r="G62" t="s">
+        <v>63</v>
+      </c>
+      <c r="H62" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9">
+      <c r="C63" s="5"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="18"/>
+      <c r="G63" t="s">
+        <v>65</v>
+      </c>
+      <c r="H63" t="s">
+        <v>8</v>
+      </c>
+      <c r="I63" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25" spans="3:9">
+      <c r="C64" s="21"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H64" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I64" s="29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9">
+      <c r="C68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H68" s="4"/>
+      <c r="I68" s="24"/>
+    </row>
+    <row r="69" spans="3:9">
+      <c r="C69" s="5"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="18"/>
+      <c r="G69" t="s">
+        <v>76</v>
+      </c>
+      <c r="H69" t="s">
+        <v>6</v>
+      </c>
+      <c r="I69" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9">
+      <c r="C70" s="5"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="18"/>
+      <c r="G70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H70" t="s">
+        <v>8</v>
+      </c>
+      <c r="I70" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="3:9">
+      <c r="C71" s="5"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="18"/>
+      <c r="G71" t="s">
+        <v>80</v>
+      </c>
+      <c r="H71" t="s">
+        <v>6</v>
+      </c>
+      <c r="I71" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9">
+      <c r="C72" s="5"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="18"/>
+      <c r="G72" t="s">
+        <v>82</v>
+      </c>
+      <c r="H72" t="s">
+        <v>6</v>
+      </c>
+      <c r="I72" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25" spans="3:9">
+      <c r="C73" s="5"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="H73" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I73" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5">
+      <c r="C74" s="5"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="7"/>
+    </row>
+    <row r="75" spans="3:9">
+      <c r="C75" s="5"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H75" s="4"/>
+      <c r="I75" s="24"/>
+    </row>
+    <row r="76" spans="3:9">
+      <c r="C76" s="5"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="18"/>
+      <c r="G76" t="s">
+        <v>88</v>
+      </c>
+      <c r="H76" t="s">
+        <v>6</v>
+      </c>
+      <c r="I76" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9">
+      <c r="C77" s="5"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="18"/>
+      <c r="G77" t="s">
+        <v>90</v>
+      </c>
+      <c r="H77" t="s">
+        <v>8</v>
+      </c>
+      <c r="I77" s="28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="3:9">
+      <c r="C78" s="5"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="18"/>
+      <c r="G78" t="s">
+        <v>82</v>
+      </c>
+      <c r="H78" t="s">
+        <v>6</v>
+      </c>
+      <c r="I78" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25" spans="3:9">
+      <c r="C79" s="21"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="H79" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I79" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="3:9">
+      <c r="C83" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H83" s="4"/>
+      <c r="I83" s="24"/>
+    </row>
+    <row r="84" spans="3:9">
+      <c r="C84" s="5"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="18"/>
+      <c r="G84" t="s">
+        <v>96</v>
+      </c>
+      <c r="H84" t="s">
+        <v>6</v>
+      </c>
+      <c r="I84" s="28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" spans="3:9">
+      <c r="C85" s="5"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="18"/>
+      <c r="G85" t="s">
+        <v>98</v>
+      </c>
+      <c r="H85" t="s">
+        <v>8</v>
+      </c>
+      <c r="I85" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="3:9">
+      <c r="C86" s="5"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="18"/>
+      <c r="G86" t="s">
+        <v>2</v>
+      </c>
+      <c r="H86" t="s">
+        <v>8</v>
+      </c>
+      <c r="I86" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="3:10">
+      <c r="C87" s="5"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="18"/>
+      <c r="G87" t="s">
+        <v>78</v>
+      </c>
+      <c r="H87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I87" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="J87" s="33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="3:10">
+      <c r="C88" s="5"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="18"/>
+      <c r="G88" t="s">
+        <v>80</v>
+      </c>
+      <c r="H88" t="s">
+        <v>6</v>
+      </c>
+      <c r="I88" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="J88" s="33"/>
+    </row>
+    <row r="89" spans="3:10">
+      <c r="C89" s="5"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="18"/>
+      <c r="G89" t="s">
+        <v>82</v>
+      </c>
+      <c r="H89" t="s">
+        <v>6</v>
+      </c>
+      <c r="I89" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="J89" s="33"/>
+    </row>
+    <row r="90" spans="3:9">
+      <c r="C90" s="5"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="18"/>
+      <c r="G90" t="s">
+        <v>101</v>
+      </c>
+      <c r="H90" t="s">
+        <v>6</v>
+      </c>
+      <c r="I90" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="3:9">
+      <c r="C91" s="5"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="18"/>
+      <c r="G91" t="s">
+        <v>103</v>
+      </c>
+      <c r="H91" t="s">
+        <v>6</v>
+      </c>
+      <c r="I91" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="92" spans="3:9">
+      <c r="C92" s="5"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="18"/>
+      <c r="G92" t="s">
+        <v>105</v>
+      </c>
+      <c r="H92" t="s">
+        <v>6</v>
+      </c>
+      <c r="I92" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="93" spans="3:9">
+      <c r="C93" s="5"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="18"/>
+      <c r="G93" t="s">
+        <v>107</v>
+      </c>
+      <c r="H93" t="s">
+        <v>6</v>
+      </c>
+      <c r="I93" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="3:9">
+      <c r="C94" s="5"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="18"/>
+      <c r="G94" t="s">
+        <v>109</v>
+      </c>
+      <c r="H94" t="s">
+        <v>6</v>
+      </c>
+      <c r="I94" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="95" spans="3:9">
+      <c r="C95" s="5"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="18"/>
+      <c r="G95" t="s">
+        <v>111</v>
+      </c>
+      <c r="H95" t="s">
+        <v>8</v>
+      </c>
+      <c r="I95" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="96" spans="3:9">
+      <c r="C96" s="5"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="18"/>
+      <c r="G96" t="s">
+        <v>60</v>
+      </c>
+      <c r="H96" t="s">
+        <v>6</v>
+      </c>
+      <c r="I96" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="97" ht="14.25" spans="3:9">
+      <c r="C97" s="5"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H97" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I97" s="29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="3:9">
+      <c r="C98" s="5"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="7"/>
+      <c r="I98" s="28"/>
+    </row>
+    <row r="99" spans="3:9">
+      <c r="C99" s="5"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H99" s="4"/>
+      <c r="I99" s="24"/>
+    </row>
+    <row r="100" spans="3:9">
+      <c r="C100" s="5"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="18"/>
+      <c r="G100" t="s">
+        <v>115</v>
+      </c>
+      <c r="H100" t="s">
+        <v>6</v>
+      </c>
+      <c r="I100" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="101" spans="3:9">
+      <c r="C101" s="5"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="18"/>
+      <c r="G101" t="s">
+        <v>117</v>
+      </c>
+      <c r="H101" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" spans="3:9">
+      <c r="C102" s="5"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="18"/>
+      <c r="G102" t="s">
+        <v>101</v>
+      </c>
+      <c r="H102" t="s">
+        <v>6</v>
+      </c>
+      <c r="I102" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="103" spans="3:9">
+      <c r="C103" s="5"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="18"/>
+      <c r="G103" t="s">
+        <v>103</v>
+      </c>
+      <c r="H103" t="s">
+        <v>6</v>
+      </c>
+      <c r="I103" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="3:9">
+      <c r="C104" s="5"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="18"/>
+      <c r="G104" t="s">
+        <v>120</v>
+      </c>
+      <c r="H104" t="s">
+        <v>6</v>
+      </c>
+      <c r="I104" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="105" spans="3:9">
+      <c r="C105" s="5"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="18"/>
+      <c r="G105" t="s">
+        <v>122</v>
+      </c>
+      <c r="H105" t="s">
+        <v>6</v>
+      </c>
+      <c r="I105" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="106" spans="3:9">
+      <c r="C106" s="5"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="18"/>
+      <c r="G106" t="s">
+        <v>124</v>
+      </c>
+      <c r="H106" t="s">
+        <v>6</v>
+      </c>
+      <c r="I106" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="107" spans="3:9">
+      <c r="C107" s="5"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="18"/>
+      <c r="G107" t="s">
+        <v>111</v>
+      </c>
+      <c r="H107" t="s">
+        <v>8</v>
+      </c>
+      <c r="I107" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="108" spans="3:9">
+      <c r="C108" s="5"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="18"/>
+      <c r="G108" t="s">
+        <v>127</v>
+      </c>
+      <c r="H108" t="s">
+        <v>8</v>
+      </c>
+      <c r="I108" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="109" spans="3:9">
+      <c r="C109" s="5"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="18"/>
+      <c r="G109" t="s">
+        <v>56</v>
+      </c>
+      <c r="H109" t="s">
+        <v>8</v>
+      </c>
+      <c r="I109" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="110" spans="3:9">
+      <c r="C110" s="5"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="18"/>
+      <c r="G110" t="s">
+        <v>60</v>
+      </c>
+      <c r="H110" t="s">
+        <v>61</v>
+      </c>
+      <c r="I110" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="111" spans="3:9">
+      <c r="C111" s="5"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="18"/>
+      <c r="G111" t="s">
+        <v>63</v>
+      </c>
+      <c r="H111" t="s">
+        <v>8</v>
+      </c>
+      <c r="I111" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="112" ht="14.25" spans="3:9">
+      <c r="C112" s="21"/>
+      <c r="D112" s="22"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="19"/>
+      <c r="G112" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H112" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I112" s="29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="116" spans="3:9">
+      <c r="C116" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H116" s="4"/>
+      <c r="I116" s="24"/>
+    </row>
+    <row r="117" spans="3:9">
+      <c r="C117" s="5"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="31"/>
+      <c r="G117" t="s">
+        <v>133</v>
+      </c>
+      <c r="H117" t="s">
+        <v>6</v>
+      </c>
+      <c r="I117" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="118" spans="3:9">
+      <c r="C118" s="5"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="31"/>
+      <c r="G118" t="s">
+        <v>117</v>
+      </c>
+      <c r="H118" t="s">
+        <v>8</v>
+      </c>
+      <c r="I118" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="119" spans="3:9">
+      <c r="C119" s="5"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="31"/>
+      <c r="G119" t="s">
+        <v>82</v>
+      </c>
+      <c r="H119" t="s">
+        <v>6</v>
+      </c>
+      <c r="I119" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="120" spans="3:9">
+      <c r="C120" s="5"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="31"/>
+      <c r="G120" t="s">
+        <v>103</v>
+      </c>
+      <c r="H120" t="s">
+        <v>6</v>
+      </c>
+      <c r="I120" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="121" spans="3:9">
+      <c r="C121" s="5"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="31"/>
+      <c r="G121" t="s">
+        <v>120</v>
+      </c>
+      <c r="H121" t="s">
+        <v>6</v>
+      </c>
+      <c r="I121" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="122" spans="3:9">
+      <c r="C122" s="5"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="31"/>
+      <c r="G122" t="s">
+        <v>138</v>
+      </c>
+      <c r="H122" t="s">
+        <v>6</v>
+      </c>
+      <c r="I122" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="123" spans="3:9">
+      <c r="C123" s="5"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="31"/>
+      <c r="G123" t="s">
+        <v>140</v>
+      </c>
+      <c r="H123" t="s">
+        <v>6</v>
+      </c>
+      <c r="I123" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="124" spans="3:9">
+      <c r="C124" s="5"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="31"/>
+      <c r="G124" t="s">
+        <v>111</v>
+      </c>
+      <c r="H124" t="s">
+        <v>8</v>
+      </c>
+      <c r="I124" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="125" spans="3:9">
+      <c r="C125" s="5"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="31"/>
+      <c r="G125" t="s">
+        <v>142</v>
+      </c>
+      <c r="H125" t="s">
+        <v>8</v>
+      </c>
+      <c r="I125" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="126" spans="3:9">
+      <c r="C126" s="5"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="31"/>
+      <c r="G126" t="s">
+        <v>56</v>
+      </c>
+      <c r="H126" t="s">
+        <v>8</v>
+      </c>
+      <c r="I126" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="127" spans="3:9">
+      <c r="C127" s="5"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="31"/>
+      <c r="G127" t="s">
+        <v>60</v>
+      </c>
+      <c r="H127" t="s">
+        <v>61</v>
+      </c>
+      <c r="I127" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="128" spans="3:9">
+      <c r="C128" s="5"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="31"/>
+      <c r="G128" t="s">
+        <v>63</v>
+      </c>
+      <c r="H128" t="s">
+        <v>8</v>
+      </c>
+      <c r="I128" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="129" ht="14.25" spans="3:9">
+      <c r="C129" s="21"/>
+      <c r="D129" s="22"/>
+      <c r="E129" s="23"/>
+      <c r="F129" s="34"/>
+      <c r="G129" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H129" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I129" s="29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="132" spans="3:9">
+      <c r="C132" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H132" s="4"/>
+      <c r="I132" s="24"/>
+    </row>
+    <row r="133" spans="3:9">
+      <c r="C133" s="5"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="18"/>
+      <c r="G133" t="s">
+        <v>147</v>
+      </c>
+      <c r="H133" t="s">
+        <v>6</v>
+      </c>
+      <c r="I133" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="134" spans="3:9">
+      <c r="C134" s="5"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="18"/>
+      <c r="G134" t="s">
+        <v>115</v>
+      </c>
+      <c r="H134" t="s">
+        <v>6</v>
+      </c>
+      <c r="I134" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="135" spans="3:9">
+      <c r="C135" s="5"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="18"/>
+      <c r="G135" t="s">
+        <v>149</v>
+      </c>
+      <c r="H135" t="s">
+        <v>6</v>
+      </c>
+      <c r="I135" s="28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="136" spans="3:9">
+      <c r="C136" s="5"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="18"/>
+      <c r="G136" t="s">
+        <v>151</v>
+      </c>
+      <c r="H136" t="s">
+        <v>61</v>
+      </c>
+      <c r="I136" s="28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="137" spans="3:9">
+      <c r="C137" s="5"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="18"/>
+      <c r="G137" t="s">
+        <v>153</v>
+      </c>
+      <c r="H137" t="s">
+        <v>8</v>
+      </c>
+      <c r="I137" s="28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="138" spans="3:9">
+      <c r="C138" s="5"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="18"/>
+      <c r="G138" t="s">
+        <v>56</v>
+      </c>
+      <c r="H138" t="s">
+        <v>8</v>
+      </c>
+      <c r="I138" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="139" spans="3:9">
+      <c r="C139" s="5"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="18"/>
+      <c r="G139" t="s">
+        <v>58</v>
+      </c>
+      <c r="H139" t="s">
+        <v>8</v>
+      </c>
+      <c r="I139" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="140" ht="14.25" spans="3:9">
+      <c r="C140" s="5"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="19"/>
+      <c r="G140" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H140" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I140" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="141" spans="3:5">
+      <c r="C141" s="5"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="7"/>
+    </row>
+    <row r="142" spans="3:9">
+      <c r="C142" s="5"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H142" s="4"/>
+      <c r="I142" s="24"/>
+    </row>
+    <row r="143" spans="3:9">
+      <c r="C143" s="5"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="18"/>
+      <c r="G143" t="s">
+        <v>157</v>
+      </c>
+      <c r="H143" t="s">
+        <v>6</v>
+      </c>
+      <c r="I143" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="144" spans="3:9">
+      <c r="C144" s="5"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="18"/>
+      <c r="G144" t="s">
+        <v>115</v>
+      </c>
+      <c r="H144" t="s">
+        <v>6</v>
+      </c>
+      <c r="I144" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="145" spans="3:9">
+      <c r="C145" s="5"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="18"/>
+      <c r="G145" t="s">
+        <v>159</v>
+      </c>
+      <c r="H145" t="s">
+        <v>6</v>
+      </c>
+      <c r="I145" s="28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="146" spans="3:9">
+      <c r="C146" s="5"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="18"/>
+      <c r="G146" t="s">
+        <v>161</v>
+      </c>
+      <c r="H146" t="s">
+        <v>61</v>
+      </c>
+      <c r="I146" s="28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="147" spans="3:9">
+      <c r="C147" s="5"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="18"/>
+      <c r="G147" t="s">
+        <v>153</v>
+      </c>
+      <c r="H147" t="s">
+        <v>8</v>
+      </c>
+      <c r="I147" s="28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="148" spans="3:9">
+      <c r="C148" s="5"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="18"/>
+      <c r="G148" t="s">
+        <v>56</v>
+      </c>
+      <c r="H148" t="s">
+        <v>8</v>
+      </c>
+      <c r="I148" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="149" spans="3:9">
+      <c r="C149" s="5"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="18"/>
+      <c r="G149" t="s">
+        <v>58</v>
+      </c>
+      <c r="H149" t="s">
+        <v>8</v>
+      </c>
+      <c r="I149" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="150" ht="14.25" spans="3:9">
+      <c r="C150" s="5"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="19"/>
+      <c r="G150" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H150" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I150" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="151" spans="3:5">
+      <c r="C151" s="5"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="7"/>
+    </row>
+    <row r="152" spans="3:9">
+      <c r="C152" s="5"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H152" s="4"/>
+      <c r="I152" s="24"/>
+    </row>
+    <row r="153" spans="3:9">
+      <c r="C153" s="5"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="18"/>
+      <c r="G153" t="s">
+        <v>166</v>
+      </c>
+      <c r="H153" t="s">
+        <v>6</v>
+      </c>
+      <c r="I153" s="28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="154" spans="3:9">
+      <c r="C154" s="5"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="18"/>
+      <c r="G154" t="s">
+        <v>133</v>
+      </c>
+      <c r="H154" t="s">
+        <v>6</v>
+      </c>
+      <c r="I154" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="155" spans="3:9">
+      <c r="C155" s="5"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="18"/>
+      <c r="G155" t="s">
+        <v>168</v>
+      </c>
+      <c r="H155" t="s">
+        <v>6</v>
+      </c>
+      <c r="I155" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="156" spans="3:9">
+      <c r="C156" s="5"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="18"/>
+      <c r="G156" t="s">
+        <v>170</v>
+      </c>
+      <c r="H156" t="s">
+        <v>61</v>
+      </c>
+      <c r="I156" s="28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="157" spans="3:9">
+      <c r="C157" s="5"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="18"/>
+      <c r="G157" t="s">
+        <v>153</v>
+      </c>
+      <c r="H157" t="s">
+        <v>8</v>
+      </c>
+      <c r="I157" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="158" spans="3:9">
+      <c r="C158" s="5"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="18"/>
+      <c r="G158" t="s">
+        <v>56</v>
+      </c>
+      <c r="H158" t="s">
+        <v>8</v>
+      </c>
+      <c r="I158" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="159" spans="3:9">
+      <c r="C159" s="5"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="18"/>
+      <c r="G159" t="s">
+        <v>58</v>
+      </c>
+      <c r="H159" t="s">
+        <v>8</v>
+      </c>
+      <c r="I159" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="160" ht="14.25" spans="3:9">
+      <c r="C160" s="5"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="19"/>
+      <c r="G160" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H160" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I160" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="161" spans="3:5">
+      <c r="C161" s="5"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="7"/>
+    </row>
+    <row r="162" spans="3:9">
+      <c r="C162" s="5"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="7"/>
+      <c r="F162" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H162" s="4"/>
+      <c r="I162" s="24"/>
+    </row>
+    <row r="163" spans="3:9">
+      <c r="C163" s="5"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="18"/>
+      <c r="G163" t="s">
+        <v>174</v>
+      </c>
+      <c r="H163" t="s">
+        <v>6</v>
+      </c>
+      <c r="I163" s="28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="164" spans="3:9">
+      <c r="C164" s="5"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="7"/>
+      <c r="F164" s="18"/>
+      <c r="G164" t="s">
+        <v>133</v>
+      </c>
+      <c r="H164" t="s">
+        <v>6</v>
+      </c>
+      <c r="I164" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="165" spans="3:9">
+      <c r="C165" s="5"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="18"/>
+      <c r="G165" t="s">
+        <v>176</v>
+      </c>
+      <c r="H165" t="s">
+        <v>6</v>
+      </c>
+      <c r="I165" s="28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="166" spans="3:9">
+      <c r="C166" s="5"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="7"/>
+      <c r="F166" s="18"/>
+      <c r="G166" t="s">
+        <v>153</v>
+      </c>
+      <c r="H166" t="s">
+        <v>8</v>
+      </c>
+      <c r="I166" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="167" spans="3:9">
+      <c r="C167" s="5"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="7"/>
+      <c r="F167" s="18"/>
+      <c r="G167" t="s">
+        <v>178</v>
+      </c>
+      <c r="H167" t="s">
+        <v>61</v>
+      </c>
+      <c r="I167" s="28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="168" spans="3:9">
+      <c r="C168" s="5"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="7"/>
+      <c r="F168" s="18"/>
+      <c r="G168" t="s">
+        <v>56</v>
+      </c>
+      <c r="H168" t="s">
+        <v>8</v>
+      </c>
+      <c r="I168" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="169" spans="3:9">
+      <c r="C169" s="5"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="7"/>
+      <c r="F169" s="18"/>
+      <c r="G169" t="s">
+        <v>58</v>
+      </c>
+      <c r="H169" t="s">
+        <v>8</v>
+      </c>
+      <c r="I169" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="170" ht="14.25" spans="3:9">
+      <c r="C170" s="21"/>
+      <c r="D170" s="22"/>
+      <c r="E170" s="23"/>
+      <c r="F170" s="19"/>
+      <c r="G170" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H170" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I170" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="173" spans="6:7">
+      <c r="F173" t="s">
+        <v>180</v>
+      </c>
+      <c r="G173" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="174" spans="6:7">
+      <c r="F174" t="s">
+        <v>182</v>
+      </c>
+      <c r="G174" t="s">
+        <v>183</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="J87:J89"/>
+    <mergeCell ref="C8:E31"/>
+    <mergeCell ref="C34:E64"/>
+    <mergeCell ref="C68:E79"/>
+    <mergeCell ref="C83:E112"/>
+    <mergeCell ref="C116:E129"/>
+    <mergeCell ref="C132:E170"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/数据库表.xlsx
+++ b/数据库表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186">
   <si>
     <t>系统管理</t>
   </si>
@@ -37,15 +37,24 @@
     <t>number</t>
   </si>
   <si>
+    <t>公司id</t>
+  </si>
+  <si>
     <t>companyName</t>
   </si>
   <si>
     <t>varchar</t>
   </si>
   <si>
+    <t>公司名称</t>
+  </si>
+  <si>
     <t>upload</t>
   </si>
   <si>
+    <t>公司logo</t>
+  </si>
+  <si>
     <t>部门表</t>
   </si>
   <si>
@@ -143,9 +152,6 @@
   </si>
   <si>
     <t>客户id</t>
-  </si>
-  <si>
-    <t>公司名称</t>
   </si>
   <si>
     <t>companyAddres</t>
@@ -574,9 +580,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -584,6 +590,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -609,6 +622,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -619,13 +639,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -700,13 +713,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -746,43 +752,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,6 +788,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -825,6 +849,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,25 +878,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,25 +896,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,6 +915,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,10 +1131,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1137,137 +1143,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1292,40 +1298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
@@ -1341,15 +1314,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -1692,10 +1656,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C8:J174"/>
+  <dimension ref="C7:J174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G166" sqref="G166"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1706,6 +1670,7 @@
     <col min="10" max="10" width="35" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="7" ht="14.25"/>
     <row r="8" ht="14.25" spans="3:9">
       <c r="C8" s="1" t="s">
         <v>0</v>
@@ -1715,854 +1680,862 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="24"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="3:9">
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="25"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="3:9">
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="26"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="3:9">
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="26"/>
+      <c r="H11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="3:9">
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="13" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="26"/>
-    </row>
-    <row r="13" ht="14.25" spans="3:9">
+      <c r="H12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9">
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="27"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" ht="14.25" spans="3:9">
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
-      <c r="I14" s="28"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="24"/>
+      <c r="F15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="3:9">
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="28"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" ht="14.25" spans="3:9">
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="29"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" ht="14.25" spans="3:9">
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
-      <c r="I18" s="28"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" spans="3:9">
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="17" t="s">
-        <v>14</v>
+      <c r="F19" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H19" s="4"/>
-      <c r="I19" s="24"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" spans="3:9">
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="18"/>
+      <c r="F20" s="8"/>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="28" t="s">
-        <v>17</v>
+      <c r="I20" s="14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="3:9">
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="18"/>
+      <c r="F21" s="8"/>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H21" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="3:9">
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="18"/>
+      <c r="F22" s="8"/>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H22" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="28" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="3:9">
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="18"/>
+      <c r="F23" s="8"/>
       <c r="G23" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H23" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>23</v>
+        <v>9</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="3:9">
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="18"/>
+      <c r="F24" s="8"/>
       <c r="G24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H24" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="28" t="s">
-        <v>25</v>
+      <c r="I24" s="14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="3:9">
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="18"/>
+      <c r="F25" s="8"/>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H25" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="28" t="s">
-        <v>26</v>
+      <c r="I25" s="14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="3:9">
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="18"/>
+      <c r="F26" s="8"/>
       <c r="G26" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H26" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" spans="3:9">
+      <c r="I26" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9">
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="29" t="s">
-        <v>30</v>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="3:9">
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
-      <c r="I28" s="28"/>
+      <c r="I28" s="14"/>
     </row>
     <row r="29" spans="3:9">
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="17" t="s">
-        <v>31</v>
+      <c r="F29" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H29" s="4"/>
-      <c r="I29" s="24"/>
+      <c r="I29" s="13"/>
     </row>
     <row r="30" spans="3:9">
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="18"/>
+      <c r="F30" s="8"/>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H30" t="s">
         <v>6</v>
       </c>
-      <c r="I30" s="28" t="s">
-        <v>34</v>
+      <c r="I30" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="3:10">
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="I31" s="29" t="s">
-        <v>36</v>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="J31" t="s">
-        <v>37</v>
-      </c>
-    </row>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25"/>
     <row r="34" spans="3:9">
       <c r="C34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="17" t="s">
-        <v>39</v>
+      <c r="F34" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H34" s="4"/>
-      <c r="I34" s="24"/>
+      <c r="I34" s="13"/>
     </row>
     <row r="35" spans="3:9">
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
       <c r="E35" s="7"/>
-      <c r="F35" s="18"/>
+      <c r="F35" s="8"/>
       <c r="G35" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H35" t="s">
         <v>6</v>
       </c>
-      <c r="I35" s="28" t="s">
-        <v>42</v>
+      <c r="I35" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="3:9">
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="18"/>
+      <c r="F36" s="8"/>
       <c r="G36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H36" t="s">
-        <v>8</v>
-      </c>
-      <c r="I36" s="28" t="s">
-        <v>43</v>
+        <v>9</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="3:9">
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="18"/>
+      <c r="F37" s="8"/>
       <c r="G37" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>8</v>
-      </c>
-      <c r="I37" s="28" t="s">
-        <v>45</v>
+        <v>9</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="3:9">
       <c r="C38" s="5"/>
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
-      <c r="F38" s="18"/>
+      <c r="F38" s="8"/>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I38" s="28" t="s">
-        <v>47</v>
+        <v>9</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="3:9">
       <c r="C39" s="5"/>
       <c r="D39" s="6"/>
       <c r="E39" s="7"/>
-      <c r="F39" s="18"/>
+      <c r="F39" s="8"/>
       <c r="G39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H39" t="s">
-        <v>8</v>
-      </c>
-      <c r="I39" s="28" t="s">
-        <v>49</v>
+        <v>9</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="3:9">
       <c r="C40" s="5"/>
       <c r="D40" s="6"/>
       <c r="E40" s="7"/>
-      <c r="F40" s="18"/>
+      <c r="F40" s="8"/>
       <c r="G40" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H40" t="s">
-        <v>8</v>
-      </c>
-      <c r="I40" s="28" t="s">
-        <v>51</v>
+        <v>9</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="3:9">
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
       <c r="E41" s="7"/>
-      <c r="F41" s="18"/>
+      <c r="F41" s="8"/>
       <c r="G41" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H41" t="s">
-        <v>8</v>
-      </c>
-      <c r="I41" s="28" t="s">
-        <v>53</v>
+        <v>9</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="3:9">
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
       <c r="E42" s="7"/>
-      <c r="F42" s="18"/>
+      <c r="F42" s="8"/>
       <c r="G42" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H42" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="28" t="s">
-        <v>55</v>
+        <v>9</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="3:9">
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
       <c r="E43" s="7"/>
-      <c r="F43" s="18"/>
+      <c r="F43" s="8"/>
       <c r="G43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H43" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="28" t="s">
-        <v>57</v>
+        <v>9</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="3:9">
       <c r="C44" s="5"/>
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="18"/>
+      <c r="F44" s="8"/>
       <c r="G44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H44" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="28" t="s">
-        <v>59</v>
+        <v>9</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="3:9">
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="18"/>
+      <c r="F45" s="8"/>
       <c r="G45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H45" t="s">
-        <v>61</v>
-      </c>
-      <c r="I45" s="28" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="3:9">
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
       <c r="E46" s="7"/>
-      <c r="F46" s="18"/>
+      <c r="F46" s="8"/>
       <c r="G46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H46" t="s">
-        <v>8</v>
-      </c>
-      <c r="I46" s="28" t="s">
-        <v>64</v>
+        <v>9</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="3:9">
       <c r="C47" s="5"/>
       <c r="D47" s="6"/>
       <c r="E47" s="7"/>
-      <c r="F47" s="18"/>
+      <c r="F47" s="8"/>
       <c r="G47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H47" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="28" t="s">
-        <v>66</v>
+        <v>9</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="3:9">
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
       <c r="E48" s="7"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="H48" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="I48" s="29" t="s">
-        <v>68</v>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="49" ht="14.25" spans="3:9">
       <c r="C49" s="5"/>
       <c r="D49" s="6"/>
       <c r="E49" s="7"/>
-      <c r="I49" s="28"/>
+      <c r="I49" s="14"/>
     </row>
     <row r="50" spans="3:9">
       <c r="C50" s="5"/>
       <c r="D50" s="6"/>
       <c r="E50" s="7"/>
-      <c r="F50" s="17" t="s">
-        <v>69</v>
+      <c r="F50" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H50" s="4"/>
-      <c r="I50" s="24"/>
+      <c r="I50" s="13"/>
     </row>
     <row r="51" spans="3:9">
       <c r="C51" s="5"/>
       <c r="D51" s="6"/>
       <c r="E51" s="7"/>
-      <c r="F51" s="18"/>
+      <c r="F51" s="8"/>
       <c r="G51" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H51" t="s">
         <v>6</v>
       </c>
-      <c r="I51" s="28" t="s">
-        <v>72</v>
+      <c r="I51" s="14" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="3:9">
       <c r="C52" s="5"/>
       <c r="D52" s="6"/>
       <c r="E52" s="7"/>
-      <c r="F52" s="18"/>
+      <c r="F52" s="8"/>
       <c r="G52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H52" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="28" t="s">
-        <v>43</v>
+        <v>9</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="3:9">
       <c r="C53" s="5"/>
       <c r="D53" s="6"/>
       <c r="E53" s="7"/>
-      <c r="F53" s="18"/>
+      <c r="F53" s="8"/>
       <c r="G53" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>8</v>
-      </c>
-      <c r="I53" s="28" t="s">
-        <v>45</v>
+        <v>9</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="3:9">
       <c r="C54" s="5"/>
       <c r="D54" s="6"/>
       <c r="E54" s="7"/>
-      <c r="F54" s="18"/>
+      <c r="F54" s="8"/>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H54" t="s">
-        <v>8</v>
-      </c>
-      <c r="I54" s="28" t="s">
-        <v>47</v>
+        <v>9</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="3:9">
       <c r="C55" s="5"/>
       <c r="D55" s="6"/>
       <c r="E55" s="7"/>
-      <c r="F55" s="18"/>
+      <c r="F55" s="8"/>
       <c r="G55" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H55" t="s">
-        <v>8</v>
-      </c>
-      <c r="I55" s="28" t="s">
-        <v>49</v>
+        <v>9</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="3:9">
       <c r="C56" s="5"/>
       <c r="D56" s="6"/>
       <c r="E56" s="7"/>
-      <c r="F56" s="18"/>
+      <c r="F56" s="8"/>
       <c r="G56" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H56" t="s">
-        <v>8</v>
-      </c>
-      <c r="I56" s="28" t="s">
-        <v>51</v>
+        <v>9</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="3:9">
       <c r="C57" s="5"/>
       <c r="D57" s="6"/>
       <c r="E57" s="7"/>
-      <c r="F57" s="18"/>
+      <c r="F57" s="8"/>
       <c r="G57" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H57" t="s">
-        <v>8</v>
-      </c>
-      <c r="I57" s="28" t="s">
-        <v>53</v>
+        <v>9</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="3:9">
       <c r="C58" s="5"/>
       <c r="D58" s="6"/>
       <c r="E58" s="7"/>
-      <c r="F58" s="18"/>
+      <c r="F58" s="8"/>
       <c r="G58" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H58" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="28" t="s">
-        <v>55</v>
+        <v>9</v>
+      </c>
+      <c r="I58" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="3:9">
       <c r="C59" s="5"/>
       <c r="D59" s="6"/>
       <c r="E59" s="7"/>
-      <c r="F59" s="18"/>
+      <c r="F59" s="8"/>
       <c r="G59" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H59" t="s">
-        <v>8</v>
-      </c>
-      <c r="I59" s="28" t="s">
-        <v>57</v>
+        <v>9</v>
+      </c>
+      <c r="I59" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="3:9">
       <c r="C60" s="5"/>
       <c r="D60" s="6"/>
       <c r="E60" s="7"/>
-      <c r="F60" s="18"/>
+      <c r="F60" s="8"/>
       <c r="G60" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H60" t="s">
-        <v>8</v>
-      </c>
-      <c r="I60" s="28" t="s">
-        <v>59</v>
+        <v>9</v>
+      </c>
+      <c r="I60" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="3:9">
       <c r="C61" s="5"/>
       <c r="D61" s="6"/>
       <c r="E61" s="7"/>
-      <c r="F61" s="18"/>
+      <c r="F61" s="8"/>
       <c r="G61" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H61" t="s">
-        <v>61</v>
-      </c>
-      <c r="I61" s="28" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="I61" s="14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="3:9">
       <c r="C62" s="5"/>
       <c r="D62" s="6"/>
       <c r="E62" s="7"/>
-      <c r="F62" s="18"/>
+      <c r="F62" s="8"/>
       <c r="G62" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H62" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="28" t="s">
-        <v>64</v>
+        <v>9</v>
+      </c>
+      <c r="I62" s="14" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="3:9">
       <c r="C63" s="5"/>
       <c r="D63" s="6"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="18"/>
+      <c r="F63" s="8"/>
       <c r="G63" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H63" t="s">
-        <v>8</v>
-      </c>
-      <c r="I63" s="28" t="s">
-        <v>66</v>
+        <v>9</v>
+      </c>
+      <c r="I63" s="14" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="3:9">
-      <c r="C64" s="21"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="H64" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="I64" s="29" t="s">
-        <v>68</v>
-      </c>
-    </row>
+      <c r="C64" s="10"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I64" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25"/>
     <row r="68" spans="3:9">
       <c r="C68" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="17" t="s">
-        <v>74</v>
+      <c r="F68" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H68" s="4"/>
-      <c r="I68" s="24"/>
+      <c r="I68" s="13"/>
     </row>
     <row r="69" spans="3:9">
       <c r="C69" s="5"/>
       <c r="D69" s="6"/>
       <c r="E69" s="7"/>
-      <c r="F69" s="18"/>
+      <c r="F69" s="8"/>
       <c r="G69" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H69" t="s">
         <v>6</v>
       </c>
-      <c r="I69" s="28" t="s">
-        <v>77</v>
+      <c r="I69" s="14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="3:9">
       <c r="C70" s="5"/>
       <c r="D70" s="6"/>
       <c r="E70" s="7"/>
-      <c r="F70" s="18"/>
+      <c r="F70" s="8"/>
       <c r="G70" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H70" t="s">
-        <v>8</v>
-      </c>
-      <c r="I70" s="28" t="s">
-        <v>79</v>
+        <v>9</v>
+      </c>
+      <c r="I70" s="14" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="3:9">
       <c r="C71" s="5"/>
       <c r="D71" s="6"/>
       <c r="E71" s="7"/>
-      <c r="F71" s="18"/>
+      <c r="F71" s="8"/>
       <c r="G71" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H71" t="s">
         <v>6</v>
       </c>
-      <c r="I71" s="32" t="s">
-        <v>81</v>
+      <c r="I71" s="18" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="3:9">
       <c r="C72" s="5"/>
       <c r="D72" s="6"/>
       <c r="E72" s="7"/>
-      <c r="F72" s="18"/>
+      <c r="F72" s="8"/>
       <c r="G72" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H72" t="s">
         <v>6</v>
       </c>
-      <c r="I72" s="28" t="s">
-        <v>83</v>
+      <c r="I72" s="14" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="73" ht="14.25" spans="3:9">
       <c r="C73" s="5"/>
       <c r="D73" s="6"/>
       <c r="E73" s="7"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="H73" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I73" s="29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="3:5">
+      <c r="F73" s="9"/>
+      <c r="G73" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I73" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25" spans="3:5">
       <c r="C74" s="5"/>
       <c r="D74" s="6"/>
       <c r="E74" s="7"/>
@@ -2571,865 +2544,868 @@
       <c r="C75" s="5"/>
       <c r="D75" s="6"/>
       <c r="E75" s="7"/>
-      <c r="F75" s="17" t="s">
-        <v>86</v>
+      <c r="F75" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H75" s="4"/>
-      <c r="I75" s="24"/>
+      <c r="I75" s="13"/>
     </row>
     <row r="76" spans="3:9">
       <c r="C76" s="5"/>
       <c r="D76" s="6"/>
       <c r="E76" s="7"/>
-      <c r="F76" s="18"/>
+      <c r="F76" s="8"/>
       <c r="G76" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H76" t="s">
         <v>6</v>
       </c>
-      <c r="I76" s="28" t="s">
-        <v>89</v>
+      <c r="I76" s="14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="3:9">
       <c r="C77" s="5"/>
       <c r="D77" s="6"/>
       <c r="E77" s="7"/>
-      <c r="F77" s="18"/>
+      <c r="F77" s="8"/>
       <c r="G77" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H77" t="s">
-        <v>8</v>
-      </c>
-      <c r="I77" s="28" t="s">
-        <v>91</v>
+        <v>9</v>
+      </c>
+      <c r="I77" s="14" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="3:9">
       <c r="C78" s="5"/>
       <c r="D78" s="6"/>
       <c r="E78" s="7"/>
-      <c r="F78" s="18"/>
+      <c r="F78" s="8"/>
       <c r="G78" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H78" t="s">
         <v>6</v>
       </c>
-      <c r="I78" s="28" t="s">
-        <v>92</v>
+      <c r="I78" s="14" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="3:9">
-      <c r="C79" s="21"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="H79" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I79" s="29" t="s">
-        <v>85</v>
-      </c>
-    </row>
+      <c r="C79" s="10"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I79" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25"/>
     <row r="83" spans="3:9">
       <c r="C83" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="3"/>
-      <c r="F83" s="17" t="s">
-        <v>94</v>
+      <c r="F83" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H83" s="4"/>
-      <c r="I83" s="24"/>
+      <c r="I83" s="13"/>
     </row>
     <row r="84" spans="3:9">
       <c r="C84" s="5"/>
       <c r="D84" s="6"/>
       <c r="E84" s="7"/>
-      <c r="F84" s="18"/>
+      <c r="F84" s="8"/>
       <c r="G84" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H84" t="s">
         <v>6</v>
       </c>
-      <c r="I84" s="28" t="s">
-        <v>97</v>
+      <c r="I84" s="14" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="3:9">
       <c r="C85" s="5"/>
       <c r="D85" s="6"/>
       <c r="E85" s="7"/>
-      <c r="F85" s="18"/>
+      <c r="F85" s="8"/>
       <c r="G85" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H85" t="s">
-        <v>8</v>
-      </c>
-      <c r="I85" s="28" t="s">
-        <v>99</v>
+        <v>9</v>
+      </c>
+      <c r="I85" s="14" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="3:9">
       <c r="C86" s="5"/>
       <c r="D86" s="6"/>
       <c r="E86" s="7"/>
-      <c r="F86" s="18"/>
+      <c r="F86" s="8"/>
       <c r="G86" t="s">
         <v>2</v>
       </c>
       <c r="H86" t="s">
-        <v>8</v>
-      </c>
-      <c r="I86" s="28" t="s">
-        <v>43</v>
+        <v>9</v>
+      </c>
+      <c r="I86" s="14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="3:10">
       <c r="C87" s="5"/>
       <c r="D87" s="6"/>
       <c r="E87" s="7"/>
-      <c r="F87" s="18"/>
+      <c r="F87" s="8"/>
       <c r="G87" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H87" t="s">
-        <v>8</v>
-      </c>
-      <c r="I87" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="J87" s="33" t="s">
-        <v>100</v>
+        <v>9</v>
+      </c>
+      <c r="I87" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J87" s="19" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="3:10">
       <c r="C88" s="5"/>
       <c r="D88" s="6"/>
       <c r="E88" s="7"/>
-      <c r="F88" s="18"/>
+      <c r="F88" s="8"/>
       <c r="G88" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H88" t="s">
         <v>6</v>
       </c>
-      <c r="I88" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="J88" s="33"/>
+      <c r="I88" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="J88" s="19"/>
     </row>
     <row r="89" spans="3:10">
       <c r="C89" s="5"/>
       <c r="D89" s="6"/>
       <c r="E89" s="7"/>
-      <c r="F89" s="18"/>
+      <c r="F89" s="8"/>
       <c r="G89" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H89" t="s">
         <v>6</v>
       </c>
-      <c r="I89" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="J89" s="33"/>
+      <c r="I89" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J89" s="19"/>
     </row>
     <row r="90" spans="3:9">
       <c r="C90" s="5"/>
       <c r="D90" s="6"/>
       <c r="E90" s="7"/>
-      <c r="F90" s="18"/>
+      <c r="F90" s="8"/>
       <c r="G90" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H90" t="s">
         <v>6</v>
       </c>
-      <c r="I90" s="28" t="s">
-        <v>102</v>
+      <c r="I90" s="14" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="3:9">
       <c r="C91" s="5"/>
       <c r="D91" s="6"/>
       <c r="E91" s="7"/>
-      <c r="F91" s="18"/>
+      <c r="F91" s="8"/>
       <c r="G91" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H91" t="s">
         <v>6</v>
       </c>
-      <c r="I91" s="28" t="s">
-        <v>104</v>
+      <c r="I91" s="14" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="3:9">
       <c r="C92" s="5"/>
       <c r="D92" s="6"/>
       <c r="E92" s="7"/>
-      <c r="F92" s="18"/>
+      <c r="F92" s="8"/>
       <c r="G92" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H92" t="s">
         <v>6</v>
       </c>
-      <c r="I92" s="28" t="s">
-        <v>106</v>
+      <c r="I92" s="14" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="3:9">
       <c r="C93" s="5"/>
       <c r="D93" s="6"/>
       <c r="E93" s="7"/>
-      <c r="F93" s="18"/>
+      <c r="F93" s="8"/>
       <c r="G93" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H93" t="s">
         <v>6</v>
       </c>
-      <c r="I93" s="28" t="s">
-        <v>108</v>
+      <c r="I93" s="14" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="3:9">
       <c r="C94" s="5"/>
       <c r="D94" s="6"/>
       <c r="E94" s="7"/>
-      <c r="F94" s="18"/>
+      <c r="F94" s="8"/>
       <c r="G94" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H94" t="s">
         <v>6</v>
       </c>
-      <c r="I94" s="28" t="s">
-        <v>110</v>
+      <c r="I94" s="14" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="3:9">
       <c r="C95" s="5"/>
       <c r="D95" s="6"/>
       <c r="E95" s="7"/>
-      <c r="F95" s="18"/>
+      <c r="F95" s="8"/>
       <c r="G95" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H95" t="s">
-        <v>8</v>
-      </c>
-      <c r="I95" s="28" t="s">
-        <v>112</v>
+        <v>9</v>
+      </c>
+      <c r="I95" s="14" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="3:9">
       <c r="C96" s="5"/>
       <c r="D96" s="6"/>
       <c r="E96" s="7"/>
-      <c r="F96" s="18"/>
+      <c r="F96" s="8"/>
       <c r="G96" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H96" t="s">
         <v>6</v>
       </c>
-      <c r="I96" s="28" t="s">
-        <v>62</v>
+      <c r="I96" s="14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="97" ht="14.25" spans="3:9">
       <c r="C97" s="5"/>
       <c r="D97" s="6"/>
       <c r="E97" s="7"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H97" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="I97" s="29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="98" spans="3:9">
+      <c r="F97" s="9"/>
+      <c r="G97" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I97" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="98" ht="14.25" spans="3:9">
       <c r="C98" s="5"/>
       <c r="D98" s="6"/>
       <c r="E98" s="7"/>
-      <c r="I98" s="28"/>
+      <c r="I98" s="14"/>
     </row>
     <row r="99" spans="3:9">
       <c r="C99" s="5"/>
       <c r="D99" s="6"/>
       <c r="E99" s="7"/>
-      <c r="F99" s="17" t="s">
-        <v>113</v>
+      <c r="F99" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H99" s="4"/>
-      <c r="I99" s="24"/>
+      <c r="I99" s="13"/>
     </row>
     <row r="100" spans="3:9">
       <c r="C100" s="5"/>
       <c r="D100" s="6"/>
       <c r="E100" s="7"/>
-      <c r="F100" s="18"/>
+      <c r="F100" s="8"/>
       <c r="G100" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H100" t="s">
         <v>6</v>
       </c>
-      <c r="I100" s="28" t="s">
-        <v>116</v>
+      <c r="I100" s="14" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="3:9">
       <c r="C101" s="5"/>
       <c r="D101" s="6"/>
       <c r="E101" s="7"/>
-      <c r="F101" s="18"/>
+      <c r="F101" s="8"/>
       <c r="G101" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H101" t="s">
-        <v>8</v>
-      </c>
-      <c r="I101" s="28" t="s">
-        <v>118</v>
+        <v>9</v>
+      </c>
+      <c r="I101" s="14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="3:9">
       <c r="C102" s="5"/>
       <c r="D102" s="6"/>
       <c r="E102" s="7"/>
-      <c r="F102" s="18"/>
+      <c r="F102" s="8"/>
       <c r="G102" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H102" t="s">
         <v>6</v>
       </c>
-      <c r="I102" s="28" t="s">
-        <v>119</v>
+      <c r="I102" s="14" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="3:9">
       <c r="C103" s="5"/>
       <c r="D103" s="6"/>
       <c r="E103" s="7"/>
-      <c r="F103" s="18"/>
+      <c r="F103" s="8"/>
       <c r="G103" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H103" t="s">
         <v>6</v>
       </c>
-      <c r="I103" s="28" t="s">
-        <v>104</v>
+      <c r="I103" s="14" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="3:9">
       <c r="C104" s="5"/>
       <c r="D104" s="6"/>
       <c r="E104" s="7"/>
-      <c r="F104" s="18"/>
+      <c r="F104" s="8"/>
       <c r="G104" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H104" t="s">
         <v>6</v>
       </c>
-      <c r="I104" s="28" t="s">
-        <v>121</v>
+      <c r="I104" s="14" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="105" spans="3:9">
       <c r="C105" s="5"/>
       <c r="D105" s="6"/>
       <c r="E105" s="7"/>
-      <c r="F105" s="18"/>
+      <c r="F105" s="8"/>
       <c r="G105" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H105" t="s">
         <v>6</v>
       </c>
-      <c r="I105" s="28" t="s">
-        <v>123</v>
+      <c r="I105" s="14" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="3:9">
       <c r="C106" s="5"/>
       <c r="D106" s="6"/>
       <c r="E106" s="7"/>
-      <c r="F106" s="18"/>
+      <c r="F106" s="8"/>
       <c r="G106" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H106" t="s">
         <v>6</v>
       </c>
-      <c r="I106" s="28" t="s">
-        <v>125</v>
+      <c r="I106" s="14" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="107" spans="3:9">
       <c r="C107" s="5"/>
       <c r="D107" s="6"/>
       <c r="E107" s="7"/>
-      <c r="F107" s="18"/>
+      <c r="F107" s="8"/>
       <c r="G107" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H107" t="s">
-        <v>8</v>
-      </c>
-      <c r="I107" s="28" t="s">
-        <v>126</v>
+        <v>9</v>
+      </c>
+      <c r="I107" s="14" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="108" spans="3:9">
       <c r="C108" s="5"/>
       <c r="D108" s="6"/>
       <c r="E108" s="7"/>
-      <c r="F108" s="18"/>
+      <c r="F108" s="8"/>
       <c r="G108" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H108" t="s">
-        <v>8</v>
-      </c>
-      <c r="I108" s="28" t="s">
-        <v>128</v>
+        <v>9</v>
+      </c>
+      <c r="I108" s="14" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="109" spans="3:9">
       <c r="C109" s="5"/>
       <c r="D109" s="6"/>
       <c r="E109" s="7"/>
-      <c r="F109" s="18"/>
+      <c r="F109" s="8"/>
       <c r="G109" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H109" t="s">
-        <v>8</v>
-      </c>
-      <c r="I109" s="28" t="s">
-        <v>129</v>
+        <v>9</v>
+      </c>
+      <c r="I109" s="14" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="110" spans="3:9">
       <c r="C110" s="5"/>
       <c r="D110" s="6"/>
       <c r="E110" s="7"/>
-      <c r="F110" s="18"/>
+      <c r="F110" s="8"/>
       <c r="G110" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H110" t="s">
-        <v>61</v>
-      </c>
-      <c r="I110" s="28" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="I110" s="14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="111" spans="3:9">
       <c r="C111" s="5"/>
       <c r="D111" s="6"/>
       <c r="E111" s="7"/>
-      <c r="F111" s="18"/>
+      <c r="F111" s="8"/>
       <c r="G111" t="s">
+        <v>65</v>
+      </c>
+      <c r="H111" t="s">
+        <v>9</v>
+      </c>
+      <c r="I111" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="112" ht="14.25" spans="3:9">
+      <c r="C112" s="10"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H112" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H111" t="s">
-        <v>8</v>
-      </c>
-      <c r="I111" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="112" ht="14.25" spans="3:9">
-      <c r="C112" s="21"/>
-      <c r="D112" s="22"/>
-      <c r="E112" s="23"/>
-      <c r="F112" s="19"/>
-      <c r="G112" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="H112" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="I112" s="29" t="s">
-        <v>68</v>
-      </c>
-    </row>
+      <c r="I112" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="115" ht="14.25"/>
     <row r="116" spans="3:9">
       <c r="C116" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="3"/>
-      <c r="F116" s="30" t="s">
-        <v>131</v>
+      <c r="F116" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H116" s="4"/>
-      <c r="I116" s="24"/>
+      <c r="I116" s="13"/>
     </row>
     <row r="117" spans="3:9">
       <c r="C117" s="5"/>
       <c r="D117" s="6"/>
       <c r="E117" s="7"/>
-      <c r="F117" s="31"/>
+      <c r="F117" s="17"/>
       <c r="G117" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H117" t="s">
         <v>6</v>
       </c>
-      <c r="I117" s="28" t="s">
-        <v>134</v>
+      <c r="I117" s="14" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="3:9">
       <c r="C118" s="5"/>
       <c r="D118" s="6"/>
       <c r="E118" s="7"/>
-      <c r="F118" s="31"/>
+      <c r="F118" s="17"/>
       <c r="G118" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H118" t="s">
-        <v>8</v>
-      </c>
-      <c r="I118" s="28" t="s">
-        <v>135</v>
+        <v>9</v>
+      </c>
+      <c r="I118" s="14" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="3:9">
       <c r="C119" s="5"/>
       <c r="D119" s="6"/>
       <c r="E119" s="7"/>
-      <c r="F119" s="31"/>
+      <c r="F119" s="17"/>
       <c r="G119" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H119" t="s">
         <v>6</v>
       </c>
-      <c r="I119" s="28" t="s">
-        <v>136</v>
+      <c r="I119" s="14" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="3:9">
       <c r="C120" s="5"/>
       <c r="D120" s="6"/>
       <c r="E120" s="7"/>
-      <c r="F120" s="31"/>
+      <c r="F120" s="17"/>
       <c r="G120" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H120" t="s">
         <v>6</v>
       </c>
-      <c r="I120" s="28" t="s">
-        <v>104</v>
+      <c r="I120" s="14" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="121" spans="3:9">
       <c r="C121" s="5"/>
       <c r="D121" s="6"/>
       <c r="E121" s="7"/>
-      <c r="F121" s="31"/>
+      <c r="F121" s="17"/>
       <c r="G121" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H121" t="s">
         <v>6</v>
       </c>
-      <c r="I121" s="28" t="s">
-        <v>137</v>
+      <c r="I121" s="14" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="3:9">
       <c r="C122" s="5"/>
       <c r="D122" s="6"/>
       <c r="E122" s="7"/>
-      <c r="F122" s="31"/>
+      <c r="F122" s="17"/>
       <c r="G122" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H122" t="s">
         <v>6</v>
       </c>
-      <c r="I122" s="28" t="s">
-        <v>139</v>
+      <c r="I122" s="14" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="123" spans="3:9">
       <c r="C123" s="5"/>
       <c r="D123" s="6"/>
       <c r="E123" s="7"/>
-      <c r="F123" s="31"/>
+      <c r="F123" s="17"/>
       <c r="G123" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H123" t="s">
         <v>6</v>
       </c>
-      <c r="I123" s="28" t="s">
-        <v>141</v>
+      <c r="I123" s="14" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="3:9">
       <c r="C124" s="5"/>
       <c r="D124" s="6"/>
       <c r="E124" s="7"/>
-      <c r="F124" s="31"/>
+      <c r="F124" s="17"/>
       <c r="G124" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H124" t="s">
-        <v>8</v>
-      </c>
-      <c r="I124" s="28" t="s">
-        <v>126</v>
+        <v>9</v>
+      </c>
+      <c r="I124" s="14" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="125" spans="3:9">
       <c r="C125" s="5"/>
       <c r="D125" s="6"/>
       <c r="E125" s="7"/>
-      <c r="F125" s="31"/>
+      <c r="F125" s="17"/>
       <c r="G125" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H125" t="s">
-        <v>8</v>
-      </c>
-      <c r="I125" s="28" t="s">
-        <v>143</v>
+        <v>9</v>
+      </c>
+      <c r="I125" s="14" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="126" spans="3:9">
       <c r="C126" s="5"/>
       <c r="D126" s="6"/>
       <c r="E126" s="7"/>
-      <c r="F126" s="31"/>
+      <c r="F126" s="17"/>
       <c r="G126" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H126" t="s">
-        <v>8</v>
-      </c>
-      <c r="I126" s="28" t="s">
-        <v>129</v>
+        <v>9</v>
+      </c>
+      <c r="I126" s="14" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="127" spans="3:9">
       <c r="C127" s="5"/>
       <c r="D127" s="6"/>
       <c r="E127" s="7"/>
-      <c r="F127" s="31"/>
+      <c r="F127" s="17"/>
       <c r="G127" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H127" t="s">
-        <v>61</v>
-      </c>
-      <c r="I127" s="28" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="I127" s="14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="128" spans="3:9">
       <c r="C128" s="5"/>
       <c r="D128" s="6"/>
       <c r="E128" s="7"/>
-      <c r="F128" s="31"/>
+      <c r="F128" s="17"/>
       <c r="G128" t="s">
+        <v>65</v>
+      </c>
+      <c r="H128" t="s">
+        <v>9</v>
+      </c>
+      <c r="I128" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="129" ht="14.25" spans="3:9">
+      <c r="C129" s="10"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H129" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H128" t="s">
-        <v>8</v>
-      </c>
-      <c r="I128" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="129" ht="14.25" spans="3:9">
-      <c r="C129" s="21"/>
-      <c r="D129" s="22"/>
-      <c r="E129" s="23"/>
-      <c r="F129" s="34"/>
-      <c r="G129" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="H129" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="I129" s="29" t="s">
-        <v>68</v>
-      </c>
-    </row>
+      <c r="I129" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="131" ht="14.25"/>
     <row r="132" spans="3:9">
       <c r="C132" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="3"/>
-      <c r="F132" s="17" t="s">
-        <v>145</v>
+      <c r="F132" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H132" s="4"/>
-      <c r="I132" s="24"/>
+      <c r="I132" s="13"/>
     </row>
     <row r="133" spans="3:9">
       <c r="C133" s="5"/>
       <c r="D133" s="6"/>
       <c r="E133" s="7"/>
-      <c r="F133" s="18"/>
+      <c r="F133" s="8"/>
       <c r="G133" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H133" t="s">
         <v>6</v>
       </c>
-      <c r="I133" s="28" t="s">
-        <v>148</v>
+      <c r="I133" s="14" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="3:9">
       <c r="C134" s="5"/>
       <c r="D134" s="6"/>
       <c r="E134" s="7"/>
-      <c r="F134" s="18"/>
+      <c r="F134" s="8"/>
       <c r="G134" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H134" t="s">
         <v>6</v>
       </c>
-      <c r="I134" s="28" t="s">
-        <v>116</v>
+      <c r="I134" s="14" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="135" spans="3:9">
       <c r="C135" s="5"/>
       <c r="D135" s="6"/>
       <c r="E135" s="7"/>
-      <c r="F135" s="18"/>
+      <c r="F135" s="8"/>
       <c r="G135" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H135" t="s">
         <v>6</v>
       </c>
-      <c r="I135" s="28" t="s">
-        <v>150</v>
+      <c r="I135" s="14" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="3:9">
       <c r="C136" s="5"/>
       <c r="D136" s="6"/>
       <c r="E136" s="7"/>
-      <c r="F136" s="18"/>
+      <c r="F136" s="8"/>
       <c r="G136" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H136" t="s">
-        <v>61</v>
-      </c>
-      <c r="I136" s="28" t="s">
-        <v>152</v>
+        <v>63</v>
+      </c>
+      <c r="I136" s="14" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="137" spans="3:9">
       <c r="C137" s="5"/>
       <c r="D137" s="6"/>
       <c r="E137" s="7"/>
-      <c r="F137" s="18"/>
+      <c r="F137" s="8"/>
       <c r="G137" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H137" t="s">
-        <v>8</v>
-      </c>
-      <c r="I137" s="28" t="s">
-        <v>154</v>
+        <v>9</v>
+      </c>
+      <c r="I137" s="14" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="138" spans="3:9">
       <c r="C138" s="5"/>
       <c r="D138" s="6"/>
       <c r="E138" s="7"/>
-      <c r="F138" s="18"/>
+      <c r="F138" s="8"/>
       <c r="G138" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H138" t="s">
-        <v>8</v>
-      </c>
-      <c r="I138" s="28" t="s">
-        <v>57</v>
+        <v>9</v>
+      </c>
+      <c r="I138" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="139" spans="3:9">
       <c r="C139" s="5"/>
       <c r="D139" s="6"/>
       <c r="E139" s="7"/>
-      <c r="F139" s="18"/>
+      <c r="F139" s="8"/>
       <c r="G139" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H139" t="s">
-        <v>8</v>
-      </c>
-      <c r="I139" s="28" t="s">
-        <v>59</v>
+        <v>9</v>
+      </c>
+      <c r="I139" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="140" ht="14.25" spans="3:9">
       <c r="C140" s="5"/>
       <c r="D140" s="6"/>
       <c r="E140" s="7"/>
-      <c r="F140" s="19"/>
-      <c r="G140" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="H140" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="I140" s="29" t="s">
+      <c r="F140" s="9"/>
+      <c r="G140" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="141" spans="3:5">
+      <c r="H140" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I140" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="141" ht="14.25" spans="3:5">
       <c r="C141" s="5"/>
       <c r="D141" s="6"/>
       <c r="E141" s="7"/>
@@ -3438,136 +3414,136 @@
       <c r="C142" s="5"/>
       <c r="D142" s="6"/>
       <c r="E142" s="7"/>
-      <c r="F142" s="17" t="s">
-        <v>155</v>
+      <c r="F142" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H142" s="4"/>
-      <c r="I142" s="24"/>
+      <c r="I142" s="13"/>
     </row>
     <row r="143" spans="3:9">
       <c r="C143" s="5"/>
       <c r="D143" s="6"/>
       <c r="E143" s="7"/>
-      <c r="F143" s="18"/>
+      <c r="F143" s="8"/>
       <c r="G143" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H143" t="s">
         <v>6</v>
       </c>
-      <c r="I143" s="28" t="s">
-        <v>158</v>
+      <c r="I143" s="14" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="3:9">
       <c r="C144" s="5"/>
       <c r="D144" s="6"/>
       <c r="E144" s="7"/>
-      <c r="F144" s="18"/>
+      <c r="F144" s="8"/>
       <c r="G144" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H144" t="s">
         <v>6</v>
       </c>
-      <c r="I144" s="28" t="s">
-        <v>116</v>
+      <c r="I144" s="14" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="145" spans="3:9">
       <c r="C145" s="5"/>
       <c r="D145" s="6"/>
       <c r="E145" s="7"/>
-      <c r="F145" s="18"/>
+      <c r="F145" s="8"/>
       <c r="G145" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H145" t="s">
         <v>6</v>
       </c>
-      <c r="I145" s="28" t="s">
-        <v>160</v>
+      <c r="I145" s="14" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="3:9">
       <c r="C146" s="5"/>
       <c r="D146" s="6"/>
       <c r="E146" s="7"/>
-      <c r="F146" s="18"/>
+      <c r="F146" s="8"/>
       <c r="G146" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H146" t="s">
-        <v>61</v>
-      </c>
-      <c r="I146" s="28" t="s">
-        <v>162</v>
+        <v>63</v>
+      </c>
+      <c r="I146" s="14" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="147" spans="3:9">
       <c r="C147" s="5"/>
       <c r="D147" s="6"/>
       <c r="E147" s="7"/>
-      <c r="F147" s="18"/>
+      <c r="F147" s="8"/>
       <c r="G147" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H147" t="s">
-        <v>8</v>
-      </c>
-      <c r="I147" s="28" t="s">
-        <v>163</v>
+        <v>9</v>
+      </c>
+      <c r="I147" s="14" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="148" spans="3:9">
       <c r="C148" s="5"/>
       <c r="D148" s="6"/>
       <c r="E148" s="7"/>
-      <c r="F148" s="18"/>
+      <c r="F148" s="8"/>
       <c r="G148" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H148" t="s">
-        <v>8</v>
-      </c>
-      <c r="I148" s="28" t="s">
-        <v>57</v>
+        <v>9</v>
+      </c>
+      <c r="I148" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="149" spans="3:9">
       <c r="C149" s="5"/>
       <c r="D149" s="6"/>
       <c r="E149" s="7"/>
-      <c r="F149" s="18"/>
+      <c r="F149" s="8"/>
       <c r="G149" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H149" t="s">
-        <v>8</v>
-      </c>
-      <c r="I149" s="28" t="s">
-        <v>59</v>
+        <v>9</v>
+      </c>
+      <c r="I149" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="150" ht="14.25" spans="3:9">
       <c r="C150" s="5"/>
       <c r="D150" s="6"/>
       <c r="E150" s="7"/>
-      <c r="F150" s="19"/>
-      <c r="G150" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="H150" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="I150" s="29" t="s">
+      <c r="F150" s="9"/>
+      <c r="G150" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="151" spans="3:5">
+      <c r="H150" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I150" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="151" ht="14.25" spans="3:5">
       <c r="C151" s="5"/>
       <c r="D151" s="6"/>
       <c r="E151" s="7"/>
@@ -3576,136 +3552,136 @@
       <c r="C152" s="5"/>
       <c r="D152" s="6"/>
       <c r="E152" s="7"/>
-      <c r="F152" s="17" t="s">
-        <v>164</v>
+      <c r="F152" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H152" s="4"/>
-      <c r="I152" s="24"/>
+      <c r="I152" s="13"/>
     </row>
     <row r="153" spans="3:9">
       <c r="C153" s="5"/>
       <c r="D153" s="6"/>
       <c r="E153" s="7"/>
-      <c r="F153" s="18"/>
+      <c r="F153" s="8"/>
       <c r="G153" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H153" t="s">
         <v>6</v>
       </c>
-      <c r="I153" s="28" t="s">
-        <v>167</v>
+      <c r="I153" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="154" spans="3:9">
       <c r="C154" s="5"/>
       <c r="D154" s="6"/>
       <c r="E154" s="7"/>
-      <c r="F154" s="18"/>
+      <c r="F154" s="8"/>
       <c r="G154" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H154" t="s">
         <v>6</v>
       </c>
-      <c r="I154" s="28" t="s">
-        <v>134</v>
+      <c r="I154" s="14" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="155" spans="3:9">
       <c r="C155" s="5"/>
       <c r="D155" s="6"/>
       <c r="E155" s="7"/>
-      <c r="F155" s="18"/>
+      <c r="F155" s="8"/>
       <c r="G155" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H155" t="s">
         <v>6</v>
       </c>
-      <c r="I155" s="28" t="s">
-        <v>169</v>
+      <c r="I155" s="14" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="156" spans="3:9">
       <c r="C156" s="5"/>
       <c r="D156" s="6"/>
       <c r="E156" s="7"/>
-      <c r="F156" s="18"/>
+      <c r="F156" s="8"/>
       <c r="G156" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H156" t="s">
-        <v>61</v>
-      </c>
-      <c r="I156" s="28" t="s">
-        <v>171</v>
+        <v>63</v>
+      </c>
+      <c r="I156" s="14" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="157" spans="3:9">
       <c r="C157" s="5"/>
       <c r="D157" s="6"/>
       <c r="E157" s="7"/>
-      <c r="F157" s="18"/>
+      <c r="F157" s="8"/>
       <c r="G157" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H157" t="s">
-        <v>8</v>
-      </c>
-      <c r="I157" s="28" t="s">
-        <v>55</v>
+        <v>9</v>
+      </c>
+      <c r="I157" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="158" spans="3:9">
       <c r="C158" s="5"/>
       <c r="D158" s="6"/>
       <c r="E158" s="7"/>
-      <c r="F158" s="18"/>
+      <c r="F158" s="8"/>
       <c r="G158" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H158" t="s">
-        <v>8</v>
-      </c>
-      <c r="I158" s="28" t="s">
-        <v>57</v>
+        <v>9</v>
+      </c>
+      <c r="I158" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="159" spans="3:9">
       <c r="C159" s="5"/>
       <c r="D159" s="6"/>
       <c r="E159" s="7"/>
-      <c r="F159" s="18"/>
+      <c r="F159" s="8"/>
       <c r="G159" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H159" t="s">
-        <v>8</v>
-      </c>
-      <c r="I159" s="28" t="s">
-        <v>59</v>
+        <v>9</v>
+      </c>
+      <c r="I159" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="160" ht="14.25" spans="3:9">
       <c r="C160" s="5"/>
       <c r="D160" s="6"/>
       <c r="E160" s="7"/>
-      <c r="F160" s="19"/>
-      <c r="G160" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="H160" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="I160" s="29" t="s">
+      <c r="F160" s="9"/>
+      <c r="G160" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="161" spans="3:5">
+      <c r="H160" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I160" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="161" ht="14.25" spans="3:5">
       <c r="C161" s="5"/>
       <c r="D161" s="6"/>
       <c r="E161" s="7"/>
@@ -3714,149 +3690,149 @@
       <c r="C162" s="5"/>
       <c r="D162" s="6"/>
       <c r="E162" s="7"/>
-      <c r="F162" s="17" t="s">
-        <v>172</v>
+      <c r="F162" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H162" s="4"/>
-      <c r="I162" s="24"/>
+      <c r="I162" s="13"/>
     </row>
     <row r="163" spans="3:9">
       <c r="C163" s="5"/>
       <c r="D163" s="6"/>
       <c r="E163" s="7"/>
-      <c r="F163" s="18"/>
+      <c r="F163" s="8"/>
       <c r="G163" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H163" t="s">
         <v>6</v>
       </c>
-      <c r="I163" s="28" t="s">
-        <v>175</v>
+      <c r="I163" s="14" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="164" spans="3:9">
       <c r="C164" s="5"/>
       <c r="D164" s="6"/>
       <c r="E164" s="7"/>
-      <c r="F164" s="18"/>
+      <c r="F164" s="8"/>
       <c r="G164" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H164" t="s">
         <v>6</v>
       </c>
-      <c r="I164" s="28" t="s">
-        <v>134</v>
+      <c r="I164" s="14" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="165" spans="3:9">
       <c r="C165" s="5"/>
       <c r="D165" s="6"/>
       <c r="E165" s="7"/>
-      <c r="F165" s="18"/>
+      <c r="F165" s="8"/>
       <c r="G165" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H165" t="s">
         <v>6</v>
       </c>
-      <c r="I165" s="28" t="s">
-        <v>177</v>
+      <c r="I165" s="14" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="166" spans="3:9">
       <c r="C166" s="5"/>
       <c r="D166" s="6"/>
       <c r="E166" s="7"/>
-      <c r="F166" s="18"/>
+      <c r="F166" s="8"/>
       <c r="G166" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H166" t="s">
-        <v>8</v>
-      </c>
-      <c r="I166" s="28" t="s">
-        <v>55</v>
+        <v>9</v>
+      </c>
+      <c r="I166" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="167" spans="3:9">
       <c r="C167" s="5"/>
       <c r="D167" s="6"/>
       <c r="E167" s="7"/>
-      <c r="F167" s="18"/>
+      <c r="F167" s="8"/>
       <c r="G167" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H167" t="s">
-        <v>61</v>
-      </c>
-      <c r="I167" s="28" t="s">
-        <v>179</v>
+        <v>63</v>
+      </c>
+      <c r="I167" s="14" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="3:9">
       <c r="C168" s="5"/>
       <c r="D168" s="6"/>
       <c r="E168" s="7"/>
-      <c r="F168" s="18"/>
+      <c r="F168" s="8"/>
       <c r="G168" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H168" t="s">
-        <v>8</v>
-      </c>
-      <c r="I168" s="28" t="s">
-        <v>57</v>
+        <v>9</v>
+      </c>
+      <c r="I168" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="169" spans="3:9">
       <c r="C169" s="5"/>
       <c r="D169" s="6"/>
       <c r="E169" s="7"/>
-      <c r="F169" s="18"/>
+      <c r="F169" s="8"/>
       <c r="G169" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H169" t="s">
-        <v>8</v>
-      </c>
-      <c r="I169" s="28" t="s">
-        <v>59</v>
+        <v>9</v>
+      </c>
+      <c r="I169" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="170" ht="14.25" spans="3:9">
-      <c r="C170" s="21"/>
-      <c r="D170" s="22"/>
-      <c r="E170" s="23"/>
-      <c r="F170" s="19"/>
-      <c r="G170" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="H170" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="I170" s="29" t="s">
+      <c r="C170" s="10"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="9" t="s">
         <v>62</v>
+      </c>
+      <c r="H170" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I170" s="15" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="173" spans="6:7">
       <c r="F173" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G173" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="174" spans="6:7">
       <c r="F174" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G174" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/数据库表.xlsx
+++ b/数据库表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9840"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187">
   <si>
     <t>系统管理</t>
   </si>
@@ -572,6 +572,9 @@
   </si>
   <si>
     <t>直接使用采购合同表字段</t>
+  </si>
+  <si>
+    <t>测试</t>
   </si>
 </sst>
 </file>
@@ -579,10 +582,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -600,8 +603,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,10 +634,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -646,24 +657,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -683,8 +687,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -707,31 +727,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -752,7 +755,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,31 +881,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,7 +899,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,109 +911,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,7 +929,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,11 +1029,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1040,21 +1049,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1074,26 +1068,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1115,6 +1100,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1131,10 +1134,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1143,133 +1146,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1656,10 +1659,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C7:J174"/>
+  <dimension ref="C7:J175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="B151" workbookViewId="0">
+      <selection activeCell="H181" sqref="H181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1738,7 +1741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="3:9">
+    <row r="13" ht="14.25" spans="3:9">
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
@@ -1922,7 +1925,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="3:9">
+    <row r="27" ht="14.25" spans="3:9">
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
@@ -3833,6 +3836,11 @@
       </c>
       <c r="G174" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="175" spans="6:6">
+      <c r="F175" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
